--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9606,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11586,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11946,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11976,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13146,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13296,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13626,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19746,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20496,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22146,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22356,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -22656,7 +22656,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -22866,7 +22866,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23016,7 +23016,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23226,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -23376,7 +23376,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -23436,7 +23436,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23526,7 +23526,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23616,7 +23616,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23706,7 +23706,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23886,7 +23886,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24006,7 +24006,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24096,7 +24096,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24126,7 +24126,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24276,7 +24276,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24486,7 +24486,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -24576,7 +24576,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -24696,7 +24696,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
     </row>
@@ -24906,7 +24906,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25086,7 +25086,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
     </row>
@@ -25146,7 +25146,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25326,7 +25326,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25386,7 +25386,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25416,7 +25416,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25506,7 +25506,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25596,7 +25596,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25656,7 +25656,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25686,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25746,7 +25746,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25806,7 +25806,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25866,7 +25866,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26016,7 +26016,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26076,7 +26076,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26106,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26166,7 +26166,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26256,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26316,7 +26316,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26346,7 +26346,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26406,7 +26406,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26466,7 +26466,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26526,7 +26526,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26616,7 +26616,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26736,7 +26736,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26826,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26886,7 +26886,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26946,7 +26946,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26976,7 +26976,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27036,7 +27036,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27096,7 +27096,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27126,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27186,7 +27186,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27246,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27336,7 +27336,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27396,7 +27396,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27426,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27486,7 +27486,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27516,7 +27516,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27576,7 +27576,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
     </row>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27786,7 +27786,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27846,7 +27846,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27876,7 +27876,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27936,7 +27936,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28026,7 +28026,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28266,7 +28266,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28326,7 +28326,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28536,7 +28536,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28596,7 +28596,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28626,7 +28626,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28686,7 +28686,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28776,7 +28776,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -28866,7 +28866,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -28956,7 +28956,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29046,7 +29046,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29106,7 +29106,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29196,7 +29196,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29286,7 +29286,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29316,7 +29316,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29376,7 +29376,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29466,7 +29466,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29586,7 +29586,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -29706,7 +29706,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30666,7 +30666,7 @@
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30786,7 +30786,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -30846,7 +30846,7 @@
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30906,7 +30906,7 @@
       </c>
       <c r="F1016" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31296,7 +31296,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31356,7 +31356,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31476,7 +31476,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31506,7 +31506,7 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -31686,7 +31686,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -31776,7 +31776,7 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
     </row>
@@ -32076,7 +32076,7 @@
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32106,7 +32106,7 @@
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32136,7 +32136,7 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32196,7 +32196,7 @@
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32226,7 +32226,7 @@
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32256,7 +32256,7 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32286,7 +32286,7 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32436,7 +32436,7 @@
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -32496,7 +32496,7 @@
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F1072" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
     </row>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32736,7 +32736,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32766,7 +32766,7 @@
       </c>
       <c r="F1078" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32826,7 +32826,7 @@
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32886,7 +32886,7 @@
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
     </row>
@@ -32916,7 +32916,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32976,7 +32976,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
     </row>
@@ -33006,7 +33006,7 @@
       </c>
       <c r="F1086" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="F1087" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33096,7 +33096,7 @@
       </c>
       <c r="F1089" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="F1090" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33186,7 +33186,7 @@
       </c>
       <c r="F1092" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33216,7 +33216,7 @@
       </c>
       <c r="F1093" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33276,7 +33276,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33306,7 +33306,7 @@
       </c>
       <c r="F1096" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33366,7 +33366,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33456,7 +33456,7 @@
       </c>
       <c r="F1101" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33516,7 +33516,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33576,7 +33576,7 @@
       </c>
       <c r="F1105" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F1107" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -34026,7 +34026,7 @@
       </c>
       <c r="F1120" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34086,7 +34086,7 @@
       </c>
       <c r="F1122" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34146,7 +34146,7 @@
       </c>
       <c r="F1124" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34206,7 +34206,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34356,7 +34356,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -34416,7 +34416,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
     </row>
@@ -34446,7 +34446,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
     </row>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34506,7 +34506,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34536,7 +34536,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34566,7 +34566,7 @@
       </c>
       <c r="F1138" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F1139" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34626,7 +34626,7 @@
       </c>
       <c r="F1140" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34656,7 +34656,7 @@
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34686,7 +34686,7 @@
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -35046,7 +35046,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
         </is>
       </c>
     </row>

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9606,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10266,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11586,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11946,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11976,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12246,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13116,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13146,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13626,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14856,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20496,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -22116,7 +22116,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22146,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -22326,7 +22326,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22356,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -22656,7 +22656,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -22836,7 +22836,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -22866,7 +22866,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
     </row>
@@ -23016,7 +23016,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -23076,7 +23076,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23226,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
     </row>
@@ -23376,7 +23376,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -23436,7 +23436,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23496,7 +23496,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23526,7 +23526,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23616,7 +23616,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23706,7 +23706,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -23886,7 +23886,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24006,7 +24006,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24096,7 +24096,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24126,7 +24126,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24276,7 +24276,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24696,7 +24696,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24726,7 +24726,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24816,7 +24816,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
     </row>
@@ -24906,7 +24906,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -24936,7 +24936,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25056,7 +25056,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -25086,7 +25086,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
     </row>
@@ -25146,7 +25146,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25326,7 +25326,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25386,7 +25386,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25416,7 +25416,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25506,7 +25506,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25596,7 +25596,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25656,7 +25656,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25686,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -25746,7 +25746,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25776,7 +25776,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -25806,7 +25806,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -25866,7 +25866,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26016,7 +26016,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26076,7 +26076,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26106,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26166,7 +26166,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26256,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26286,7 +26286,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -26316,7 +26316,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26346,7 +26346,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26376,7 +26376,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -26406,7 +26406,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26466,7 +26466,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26526,7 +26526,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26616,7 +26616,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26736,7 +26736,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26826,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -26886,7 +26886,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26946,7 +26946,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -26976,7 +26976,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27036,7 +27036,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27096,7 +27096,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27126,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27186,7 +27186,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27246,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27336,7 +27336,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27396,7 +27396,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27426,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27486,7 +27486,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27516,7 +27516,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27576,7 +27576,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27786,7 +27786,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27846,7 +27846,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27876,7 +27876,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -27936,7 +27936,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27966,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28026,7 +28026,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28056,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28206,7 +28206,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
     </row>
@@ -28266,7 +28266,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28326,7 +28326,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28536,7 +28536,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28596,7 +28596,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28626,7 +28626,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -28686,7 +28686,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28746,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -28956,7 +28956,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29046,7 +29046,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29106,7 +29106,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29196,7 +29196,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29286,7 +29286,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29316,7 +29316,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29376,7 +29376,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -29466,7 +29466,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29586,7 +29586,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -29706,7 +29706,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -29766,7 +29766,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30636,7 +30636,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -30666,7 +30666,7 @@
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30696,7 +30696,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30786,7 +30786,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -30846,7 +30846,7 @@
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -30906,7 +30906,7 @@
       </c>
       <c r="F1016" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31296,7 +31296,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31356,7 +31356,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -31476,7 +31476,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32076,7 +32076,7 @@
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32106,7 +32106,7 @@
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32136,7 +32136,7 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32196,7 +32196,7 @@
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32226,7 +32226,7 @@
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32256,7 +32256,7 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32286,7 +32286,7 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32436,7 +32436,7 @@
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -32496,7 +32496,7 @@
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F1072" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
     </row>
@@ -32676,7 +32676,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32736,7 +32736,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32766,7 +32766,7 @@
       </c>
       <c r="F1078" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -32826,7 +32826,7 @@
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32856,7 +32856,7 @@
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -32886,7 +32886,7 @@
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
     </row>
@@ -32916,7 +32916,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -32976,7 +32976,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
     </row>
@@ -33006,7 +33006,7 @@
       </c>
       <c r="F1086" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33036,7 +33036,7 @@
       </c>
       <c r="F1087" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33096,7 +33096,7 @@
       </c>
       <c r="F1089" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="F1090" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33186,7 +33186,7 @@
       </c>
       <c r="F1092" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33216,7 +33216,7 @@
       </c>
       <c r="F1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33276,7 +33276,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33306,7 +33306,7 @@
       </c>
       <c r="F1096" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33366,7 +33366,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -33456,7 +33456,7 @@
       </c>
       <c r="F1101" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33486,7 +33486,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
     </row>
@@ -33516,7 +33516,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -33576,7 +33576,7 @@
       </c>
       <c r="F1105" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F1107" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
     </row>
@@ -34026,7 +34026,7 @@
       </c>
       <c r="F1120" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34086,7 +34086,7 @@
       </c>
       <c r="F1122" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34146,7 +34146,7 @@
       </c>
       <c r="F1124" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34206,7 +34206,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34356,7 +34356,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -34446,7 +34446,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
         </is>
       </c>
     </row>
@@ -34476,7 +34476,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34506,7 +34506,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34536,7 +34536,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34566,7 +34566,7 @@
       </c>
       <c r="F1138" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="F1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34626,7 +34626,7 @@
       </c>
       <c r="F1140" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -34656,7 +34656,7 @@
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
     </row>
@@ -34686,7 +34686,7 @@
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>
@@ -35046,7 +35046,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
     </row>

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7666,12 +7666,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7736,12 +7736,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9906,12 +9906,12 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9976,12 +9976,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -15051,12 +15051,12 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -15086,12 +15086,12 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>{'eft:danasila'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -15121,12 +15121,12 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15156,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -22961,7 +22961,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -24186,7 +24186,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -25726,7 +25726,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -25761,7 +25761,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
@@ -25971,7 +25971,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -26006,7 +26006,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
@@ -26041,7 +26041,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -26076,7 +26076,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -26111,7 +26111,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -26146,7 +26146,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
@@ -26496,7 +26496,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -26741,7 +26741,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -26776,7 +26776,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -26846,7 +26846,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -27021,7 +27021,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
@@ -27056,7 +27056,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
@@ -27126,7 +27126,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
@@ -27161,7 +27161,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
@@ -27196,7 +27196,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
@@ -27336,7 +27336,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
@@ -27371,7 +27371,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G770" t="inlineStr">
@@ -27441,7 +27441,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
@@ -27476,7 +27476,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
@@ -27546,7 +27546,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -27581,7 +27581,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -27651,7 +27651,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -27686,7 +27686,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -27756,7 +27756,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -27791,7 +27791,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -27861,7 +27861,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -27931,7 +27931,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G786" t="inlineStr">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -28071,7 +28071,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G790" t="inlineStr">
@@ -28141,7 +28141,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G792" t="inlineStr">
@@ -28176,7 +28176,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
@@ -28246,7 +28246,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -28281,7 +28281,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -28491,7 +28491,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G802" t="inlineStr">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G805" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -28876,7 +28876,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
@@ -28981,7 +28981,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
@@ -29261,7 +29261,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -29541,7 +29541,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G835" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -29856,7 +29856,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -29961,7 +29961,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -30066,7 +30066,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -30346,7 +30346,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -30451,7 +30451,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -30626,7 +30626,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -30696,7 +30696,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -30801,7 +30801,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -30906,7 +30906,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -31186,7 +31186,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -31221,7 +31221,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -31291,7 +31291,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -31466,7 +31466,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -31536,7 +31536,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -31746,7 +31746,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -31921,7 +31921,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -32411,7 +32411,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
@@ -32446,7 +32446,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G932" t="inlineStr">
@@ -33216,7 +33216,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -33286,7 +33286,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -33391,7 +33391,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -33496,7 +33496,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
@@ -33601,7 +33601,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -33706,7 +33706,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33776,7 +33776,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
@@ -33881,7 +33881,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
@@ -33951,7 +33951,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G958" t="inlineStr">
@@ -33986,7 +33986,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
@@ -34056,7 +34056,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34126,7 +34126,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -34231,7 +34231,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34301,7 +34301,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G968" t="inlineStr">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34581,7 +34581,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -35701,7 +35701,7 @@
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1008" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1014" t="inlineStr">
@@ -35981,7 +35981,7 @@
       </c>
       <c r="F1016" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1016" t="inlineStr">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1028" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1029" t="inlineStr">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1030" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -36541,7 +36541,7 @@
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1032" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36646,7 +36646,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1035" t="inlineStr">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1036" t="inlineStr">
@@ -36786,7 +36786,7 @@
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1039" t="inlineStr">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1042" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1045" t="inlineStr">
@@ -37346,7 +37346,7 @@
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1055" t="inlineStr">
@@ -37381,7 +37381,7 @@
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1056" t="inlineStr">
@@ -37416,7 +37416,7 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1057" t="inlineStr">
@@ -37451,7 +37451,7 @@
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1058" t="inlineStr">
@@ -37486,7 +37486,7 @@
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1059" t="inlineStr">
@@ -37521,7 +37521,7 @@
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1060" t="inlineStr">
@@ -37556,7 +37556,7 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1061" t="inlineStr">
@@ -37591,7 +37591,7 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1062" t="inlineStr">
@@ -37766,7 +37766,7 @@
       </c>
       <c r="F1067" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1067" t="inlineStr">
@@ -37836,7 +37836,7 @@
       </c>
       <c r="F1069" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G1069" t="inlineStr">
@@ -37941,7 +37941,7 @@
       </c>
       <c r="F1072" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G1072" t="inlineStr">
@@ -38046,7 +38046,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1075" t="inlineStr">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
@@ -38151,7 +38151,7 @@
       </c>
       <c r="F1078" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1078" t="inlineStr">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1080" t="inlineStr">
@@ -38256,7 +38256,7 @@
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1081" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1083" t="inlineStr">
@@ -38431,7 +38431,7 @@
       </c>
       <c r="F1086" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1086" t="inlineStr">
@@ -38466,7 +38466,7 @@
       </c>
       <c r="F1087" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1087" t="inlineStr">
@@ -38536,7 +38536,7 @@
       </c>
       <c r="F1089" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1089" t="inlineStr">
@@ -38571,7 +38571,7 @@
       </c>
       <c r="F1090" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1090" t="inlineStr">
@@ -38641,7 +38641,7 @@
       </c>
       <c r="F1092" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1092" t="inlineStr">
@@ -38676,7 +38676,7 @@
       </c>
       <c r="F1093" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1093" t="inlineStr">
@@ -38746,7 +38746,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1095" t="inlineStr">
@@ -38781,7 +38781,7 @@
       </c>
       <c r="F1096" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1096" t="inlineStr">
@@ -38851,7 +38851,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1098" t="inlineStr">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1099" t="inlineStr">
@@ -38921,7 +38921,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1100" t="inlineStr">
@@ -38956,7 +38956,7 @@
       </c>
       <c r="F1101" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1101" t="inlineStr">
@@ -38991,7 +38991,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
@@ -39026,7 +39026,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1103" t="inlineStr">
@@ -39096,7 +39096,7 @@
       </c>
       <c r="F1105" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1105" t="inlineStr">
@@ -39166,7 +39166,7 @@
       </c>
       <c r="F1107" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1107" t="inlineStr">
@@ -39586,7 +39586,7 @@
       </c>
       <c r="F1119" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1119" t="inlineStr">
@@ -39621,7 +39621,7 @@
       </c>
       <c r="F1120" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1120" t="inlineStr">
@@ -39656,7 +39656,7 @@
       </c>
       <c r="F1121" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1121" t="inlineStr">
@@ -39691,7 +39691,7 @@
       </c>
       <c r="F1122" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1122" t="inlineStr">
@@ -39726,7 +39726,7 @@
       </c>
       <c r="F1123" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1123" t="inlineStr">
@@ -39761,7 +39761,7 @@
       </c>
       <c r="F1124" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1124" t="inlineStr">
@@ -39796,7 +39796,7 @@
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1125" t="inlineStr">
@@ -39831,7 +39831,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40111,7 +40111,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1134" t="inlineStr">
@@ -40146,7 +40146,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1135" t="inlineStr">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
@@ -40216,7 +40216,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1137" t="inlineStr">
@@ -40251,7 +40251,7 @@
       </c>
       <c r="F1138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1138" t="inlineStr">
@@ -40286,7 +40286,7 @@
       </c>
       <c r="F1139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1139" t="inlineStr">
@@ -40321,7 +40321,7 @@
       </c>
       <c r="F1140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1140" t="inlineStr">
@@ -40356,7 +40356,7 @@
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1141" t="inlineStr">
@@ -40391,7 +40391,7 @@
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1142" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40811,7 +40811,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,12 +3711,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4166,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7736,12 +7736,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -7841,12 +7841,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7946,12 +7946,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8016,12 +8016,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8086,12 +8086,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8261,12 +8261,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8366,12 +8366,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8436,12 +8436,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9136,12 +9136,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11026,12 +11026,12 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -11481,12 +11481,12 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11551,12 +11551,12 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,12 +11691,12 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11731,7 +11731,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11866,12 +11866,12 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -11936,12 +11936,12 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12531,12 +12531,12 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12601,12 +12601,12 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,12 +12951,12 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13056,12 +13056,12 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -14911,12 +14911,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -15051,7 +15051,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15471,12 +15471,12 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15546,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -15751,12 +15751,12 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -15961,12 +15961,12 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16066,12 +16066,12 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16136,12 +16136,12 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16206,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -16281,7 +16281,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16486,12 +16486,12 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -16591,12 +16591,12 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -16696,12 +16696,12 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -16801,12 +16801,12 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -16906,12 +16906,12 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -17011,12 +17011,12 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -18066,7 +18066,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -18171,7 +18171,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -18201,7 +18201,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -18276,7 +18276,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18306,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -18486,7 +18486,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -18761,12 +18761,12 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19081,7 +19081,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19151,7 +19151,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19186,7 +19186,7 @@
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19291,7 +19291,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19326,7 @@
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19396,7 +19396,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19431,7 +19431,7 @@
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -19466,7 +19466,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19501,7 +19501,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19571,7 +19571,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -19641,7 +19641,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19676,7 +19676,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -19711,7 +19711,7 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19746,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19851,7 +19851,7 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -20026,7 +20026,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20236,7 +20236,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20271,7 +20271,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20341,7 +20341,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20446,7 +20446,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -20481,7 +20481,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20516,7 +20516,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20551,7 +20551,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -20656,7 +20656,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -21391,7 +21391,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -21671,7 +21671,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -21741,7 +21741,7 @@
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -22371,7 +22371,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -22511,7 +22511,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23036,7 +23036,7 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23211,7 +23211,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -23246,7 +23246,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23281,7 +23281,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23421,7 +23421,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23526,7 +23526,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23596,7 +23596,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -23701,7 +23701,7 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23736,7 +23736,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23841,7 +23841,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -23876,7 +23876,7 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24086,7 +24086,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24156,7 +24156,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24191,7 +24191,7 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24226,7 +24226,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24261,7 +24261,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24296,7 +24296,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24331,7 +24331,7 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24436,7 +24436,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24471,7 +24471,7 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24506,7 +24506,7 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24541,7 +24541,7 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24576,7 +24576,7 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24646,7 +24646,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24681,7 +24681,7 @@
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24751,7 +24751,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24786,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -24821,7 +24821,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24961,7 +24961,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25066,7 +25066,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25101,7 +25101,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25136,7 +25136,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25241,7 +25241,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25276,7 +25276,7 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25311,7 +25311,7 @@
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25346,7 +25346,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25381,7 +25381,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25416,7 +25416,7 @@
       </c>
       <c r="G714" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25451,7 +25451,7 @@
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25486,7 +25486,7 @@
       </c>
       <c r="G716" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25591,7 +25591,7 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25626,7 +25626,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25661,7 +25661,7 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25696,7 +25696,7 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25731,7 +25731,7 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25766,7 +25766,7 @@
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25801,7 +25801,7 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25906,7 +25906,7 @@
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -25941,7 +25941,7 @@
       </c>
       <c r="G729" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -25976,7 +25976,7 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -26011,7 +26011,7 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26046,7 +26046,7 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -26081,7 +26081,7 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26116,7 +26116,7 @@
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -26151,7 +26151,7 @@
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26221,7 +26221,7 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26256,7 @@
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -26291,7 +26291,7 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -26361,7 +26361,7 @@
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26396,7 +26396,7 @@
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -26536,7 +26536,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26571,7 +26571,7 @@
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26641,7 +26641,7 @@
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26746,7 +26746,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26781,7 +26781,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26851,7 +26851,7 @@
       </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26886,7 +26886,7 @@
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26921,7 +26921,7 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -26956,7 +26956,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27026,7 +27026,7 @@
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27096,7 +27096,7 @@
       </c>
       <c r="G762" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27131,7 +27131,7 @@
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27166,7 +27166,7 @@
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27236,7 +27236,7 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27271,7 +27271,7 @@
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27341,7 +27341,7 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27376,7 +27376,7 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27446,7 +27446,7 @@
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27481,7 +27481,7 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27516,7 +27516,7 @@
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27656,7 +27656,7 @@
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27691,7 +27691,7 @@
       </c>
       <c r="G779" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="G780" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27796,7 +27796,7 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27831,7 +27831,7 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27866,7 +27866,7 @@
       </c>
       <c r="G784" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27901,7 +27901,7 @@
       </c>
       <c r="G785" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -27936,7 +27936,7 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -27971,7 +27971,7 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -28076,7 +28076,7 @@
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28111,7 +28111,7 @@
       </c>
       <c r="G791" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28181,7 +28181,7 @@
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28216,7 +28216,7 @@
       </c>
       <c r="G794" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28251,7 +28251,7 @@
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28321,7 +28321,7 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -28426,7 +28426,7 @@
       </c>
       <c r="G800" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -28461,7 +28461,7 @@
       </c>
       <c r="G801" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28496,7 +28496,7 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28531,7 +28531,7 @@
       </c>
       <c r="G803" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28566,7 @@
       </c>
       <c r="G804" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28596,7 +28596,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G805" t="inlineStr">
@@ -28631,7 +28631,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
@@ -28701,7 +28701,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G808" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -28881,7 +28881,7 @@
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -28916,7 +28916,7 @@
       </c>
       <c r="G814" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -28951,7 +28951,7 @@
       </c>
       <c r="G815" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -29121,7 +29121,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -29191,7 +29191,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -29226,7 +29226,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
@@ -29301,7 +29301,7 @@
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -29366,7 +29366,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
@@ -29441,7 +29441,7 @@
       </c>
       <c r="G829" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -29471,7 +29471,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -29546,7 +29546,7 @@
       </c>
       <c r="G832" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -29616,7 +29616,7 @@
       </c>
       <c r="G834" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -29681,7 +29681,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -29721,7 +29721,7 @@
       </c>
       <c r="G837" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -29786,7 +29786,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="G841" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -29961,7 +29961,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -30066,7 +30066,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -30206,7 +30206,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -30486,7 +30486,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -30696,7 +30696,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -30766,7 +30766,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -30801,7 +30801,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -30906,7 +30906,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="G874" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -31051,7 +31051,7 @@
       </c>
       <c r="G875" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -31116,7 +31116,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -31156,7 +31156,7 @@
       </c>
       <c r="G878" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -31221,7 +31221,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -31261,7 +31261,7 @@
       </c>
       <c r="G881" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -31331,7 +31331,7 @@
       </c>
       <c r="G883" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -31361,7 +31361,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -31471,7 +31471,7 @@
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -31501,7 +31501,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -31536,7 +31536,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -31606,7 +31606,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -31751,7 +31751,7 @@
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -31781,7 +31781,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -31926,7 +31926,7 @@
       </c>
       <c r="G900" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -31961,7 +31961,7 @@
       </c>
       <c r="G901" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -31996,7 +31996,7 @@
       </c>
       <c r="G902" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -32031,7 +32031,7 @@
       </c>
       <c r="G903" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -32066,7 +32066,7 @@
       </c>
       <c r="G904" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -32096,7 +32096,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -32376,7 +32376,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -32411,7 +32411,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
@@ -32481,7 +32481,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -32766,7 +32766,7 @@
       </c>
       <c r="G924" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -32801,7 +32801,7 @@
       </c>
       <c r="G925" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -32836,7 +32836,7 @@
       </c>
       <c r="G926" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -32871,7 +32871,7 @@
       </c>
       <c r="G927" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33006,7 +33006,7 @@
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -33076,7 +33076,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -33116,7 +33116,7 @@
       </c>
       <c r="G934" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -33151,7 +33151,7 @@
       </c>
       <c r="G935" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -33181,7 +33181,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -33216,7 +33216,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -33286,7 +33286,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -33496,7 +33496,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
@@ -33601,7 +33601,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -33671,7 +33671,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
@@ -33986,7 +33986,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
@@ -34021,7 +34021,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G960" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34336,7 +34336,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G980" t="inlineStr">
@@ -34796,7 +34796,7 @@
       </c>
       <c r="G982" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -34826,7 +34826,7 @@
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
@@ -34901,7 +34901,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -34931,7 +34931,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -34966,7 +34966,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -35036,7 +35036,7 @@
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G989" t="inlineStr">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G990" t="inlineStr">
@@ -35141,7 +35141,7 @@
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G992" t="inlineStr">
@@ -35176,7 +35176,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -35246,7 +35246,7 @@
       </c>
       <c r="F995" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G995" t="inlineStr">
@@ -35281,7 +35281,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
@@ -35351,7 +35351,7 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G998" t="inlineStr">
@@ -35391,7 +35391,7 @@
       </c>
       <c r="G999" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -35426,7 +35426,7 @@
       </c>
       <c r="G1000" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -35461,7 +35461,7 @@
       </c>
       <c r="G1001" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -35496,7 +35496,7 @@
       </c>
       <c r="G1002" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -35526,7 +35526,7 @@
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1003" t="inlineStr">
@@ -35596,7 +35596,7 @@
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1005" t="inlineStr">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -35706,7 +35706,7 @@
       </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -35741,7 +35741,7 @@
       </c>
       <c r="G1009" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -35776,7 +35776,7 @@
       </c>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -35811,7 +35811,7 @@
       </c>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -35841,7 +35841,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1014" t="inlineStr">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1015" t="inlineStr">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1017" t="inlineStr">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -36086,7 +36086,7 @@
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="G1021" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -36226,7 +36226,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1023" t="inlineStr">
@@ -36266,7 +36266,7 @@
       </c>
       <c r="G1024" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -36331,7 +36331,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1028" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1029" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36716,7 +36716,7 @@
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1037" t="inlineStr">
@@ -36751,7 +36751,7 @@
       </c>
       <c r="F1038" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1038" t="inlineStr">
@@ -36821,7 +36821,7 @@
       </c>
       <c r="F1040" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1040" t="inlineStr">
@@ -36856,7 +36856,7 @@
       </c>
       <c r="F1041" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1041" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1043" t="inlineStr">
@@ -36966,7 +36966,7 @@
       </c>
       <c r="G1044" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37001,7 +37001,7 @@
       </c>
       <c r="G1045" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37036,7 +37036,7 @@
       </c>
       <c r="G1046" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37106,7 +37106,7 @@
       </c>
       <c r="G1048" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -37141,7 +37141,7 @@
       </c>
       <c r="G1049" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37206,7 +37206,7 @@
       </c>
       <c r="F1051" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1051" t="inlineStr">
@@ -37276,7 +37276,7 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1053" t="inlineStr">
@@ -37351,7 +37351,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37386,7 +37386,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -37421,7 +37421,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37456,7 +37456,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -37491,7 +37491,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37526,7 +37526,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -37561,7 +37561,7 @@
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37596,7 +37596,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -37631,7 +37631,7 @@
       </c>
       <c r="G1063" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37666,7 +37666,7 @@
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37701,7 +37701,7 @@
       </c>
       <c r="G1065" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37736,7 +37736,7 @@
       </c>
       <c r="G1066" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37771,7 +37771,7 @@
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37806,7 +37806,7 @@
       </c>
       <c r="G1068" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37841,7 +37841,7 @@
       </c>
       <c r="G1069" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37876,7 +37876,7 @@
       </c>
       <c r="G1070" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -37911,7 +37911,7 @@
       </c>
       <c r="G1071" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37946,7 +37946,7 @@
       </c>
       <c r="G1072" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -37981,7 +37981,7 @@
       </c>
       <c r="G1073" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -38016,7 +38016,7 @@
       </c>
       <c r="G1074" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38051,7 +38051,7 @@
       </c>
       <c r="G1075" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38086,7 +38086,7 @@
       </c>
       <c r="G1076" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -38121,7 +38121,7 @@
       </c>
       <c r="G1077" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38156,7 +38156,7 @@
       </c>
       <c r="G1078" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38191,7 +38191,7 @@
       </c>
       <c r="G1079" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38226,7 +38226,7 @@
       </c>
       <c r="G1080" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38261,7 +38261,7 @@
       </c>
       <c r="G1081" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38291,7 +38291,7 @@
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1082" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1083" t="inlineStr">
@@ -38361,7 +38361,7 @@
       </c>
       <c r="F1084" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1084" t="inlineStr">
@@ -38396,7 +38396,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1085" t="inlineStr">
@@ -38436,7 +38436,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38466,7 +38466,7 @@
       </c>
       <c r="F1087" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1087" t="inlineStr">
@@ -38536,7 +38536,7 @@
       </c>
       <c r="F1089" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1089" t="inlineStr">
@@ -38606,7 +38606,7 @@
       </c>
       <c r="F1091" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1091" t="inlineStr">
@@ -38646,7 +38646,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -38681,7 +38681,7 @@
       </c>
       <c r="G1093" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38716,7 +38716,7 @@
       </c>
       <c r="G1094" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -38751,7 +38751,7 @@
       </c>
       <c r="G1095" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38786,7 +38786,7 @@
       </c>
       <c r="G1096" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -38821,7 +38821,7 @@
       </c>
       <c r="G1097" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38856,7 +38856,7 @@
       </c>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38891,7 +38891,7 @@
       </c>
       <c r="G1099" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38926,7 +38926,7 @@
       </c>
       <c r="G1100" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38961,7 +38961,7 @@
       </c>
       <c r="G1101" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -38996,7 +38996,7 @@
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39061,7 +39061,7 @@
       </c>
       <c r="F1104" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1104" t="inlineStr">
@@ -39131,7 +39131,7 @@
       </c>
       <c r="F1106" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1106" t="inlineStr">
@@ -39201,7 +39201,7 @@
       </c>
       <c r="F1108" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1108" t="inlineStr">
@@ -39271,7 +39271,7 @@
       </c>
       <c r="F1110" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1110" t="inlineStr">
@@ -39306,7 +39306,7 @@
       </c>
       <c r="F1111" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1111" t="inlineStr">
@@ -39346,7 +39346,7 @@
       </c>
       <c r="G1112" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39411,7 +39411,7 @@
       </c>
       <c r="F1114" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1114" t="inlineStr">
@@ -39451,7 +39451,7 @@
       </c>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39516,7 +39516,7 @@
       </c>
       <c r="F1117" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1117" t="inlineStr">
@@ -39556,7 +39556,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39621,7 +39621,7 @@
       </c>
       <c r="F1120" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1120" t="inlineStr">
@@ -39661,7 +39661,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39766,7 +39766,7 @@
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39801,7 +39801,7 @@
       </c>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39836,7 +39836,7 @@
       </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -39871,7 +39871,7 @@
       </c>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39906,7 +39906,7 @@
       </c>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39941,7 +39941,7 @@
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -39971,7 +39971,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40041,7 +40041,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40111,7 +40111,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1134" t="inlineStr">
@@ -40146,7 +40146,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1135" t="inlineStr">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
@@ -40216,7 +40216,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1137" t="inlineStr">
@@ -40256,7 +40256,7 @@
       </c>
       <c r="G1138" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40291,7 +40291,7 @@
       </c>
       <c r="G1139" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40326,7 +40326,7 @@
       </c>
       <c r="G1140" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40391,7 +40391,7 @@
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1142" t="inlineStr">
@@ -40431,7 +40431,7 @@
       </c>
       <c r="G1143" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40501,7 +40501,7 @@
       </c>
       <c r="G1145" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40536,7 +40536,7 @@
       </c>
       <c r="G1146" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40606,7 +40606,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40641,7 +40641,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -40671,7 +40671,7 @@
       </c>
       <c r="F1150" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1150" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40846,7 +40846,7 @@
       </c>
       <c r="F1155" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1155" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="F1156" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1156" t="inlineStr">
@@ -40916,7 +40916,7 @@
       </c>
       <c r="F1157" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G1157" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -41021,7 +41021,7 @@
       </c>
       <c r="F1160" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G1160" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41091,7 +41091,7 @@
       </c>
       <c r="F1162" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1162" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41196,7 +41196,7 @@
       </c>
       <c r="F1165" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1165" t="inlineStr">
@@ -41266,7 +41266,7 @@
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
@@ -41301,7 +41301,7 @@
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1168" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
@@ -41406,7 +41406,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41546,7 +41546,7 @@
       </c>
       <c r="F1175" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1175" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
@@ -41616,7 +41616,7 @@
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
@@ -41691,7 +41691,7 @@
       </c>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -41761,7 +41761,7 @@
       </c>
       <c r="G1181" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -41831,7 +41831,7 @@
       </c>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -41866,7 +41866,7 @@
       </c>
       <c r="G1184" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -41901,7 +41901,7 @@
       </c>
       <c r="G1185" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -41936,7 +41936,7 @@
       </c>
       <c r="G1186" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -41971,7 +41971,7 @@
       </c>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -42006,7 +42006,7 @@
       </c>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42041,7 +42041,7 @@
       </c>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -42076,7 +42076,7 @@
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42111,7 +42111,7 @@
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42146,7 +42146,7 @@
       </c>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42181,7 +42181,7 @@
       </c>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42246,7 +42246,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -42386,7 +42386,7 @@
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
@@ -42456,7 +42456,7 @@
       </c>
       <c r="F1201" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1201" t="inlineStr">
@@ -42496,7 +42496,7 @@
       </c>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42531,7 +42531,7 @@
       </c>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42631,7 +42631,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
@@ -42706,7 +42706,7 @@
       </c>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -42736,7 +42736,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -42771,7 +42771,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
@@ -42876,7 +42876,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -42911,7 +42911,7 @@
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1214" t="inlineStr">
@@ -42946,7 +42946,7 @@
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1215" t="inlineStr">
@@ -42981,7 +42981,7 @@
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1216" t="inlineStr">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1217" t="inlineStr">
@@ -43056,7 +43056,7 @@
       </c>
       <c r="G1218" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -43091,7 +43091,7 @@
       </c>
       <c r="G1219" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -43126,7 +43126,7 @@
       </c>
       <c r="G1220" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -43161,7 +43161,7 @@
       </c>
       <c r="G1221" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -43196,7 +43196,7 @@
       </c>
       <c r="G1222" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -43231,7 +43231,7 @@
       </c>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -43266,7 +43266,7 @@
       </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -43301,7 +43301,7 @@
       </c>
       <c r="G1225" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>sa</t>
         </is>
       </c>
     </row>
@@ -43336,7 +43336,7 @@
       </c>
       <c r="G1226" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -43371,7 +43371,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>bo</t>
         </is>
       </c>
     </row>
@@ -43436,7 +43436,7 @@
       </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:zhang-yesh-d-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -15051,7 +15051,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -15751,7 +15751,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -16941,7 +16941,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -17011,7 +17011,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -25586,7 +25586,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -26461,7 +26461,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -26811,7 +26811,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G754" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G805" t="inlineStr">
@@ -28631,7 +28631,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
@@ -28701,7 +28701,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G808" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -28981,7 +28981,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -29121,7 +29121,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -29191,7 +29191,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -29226,7 +29226,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -29961,7 +29961,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -30066,7 +30066,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -30206,7 +30206,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -30486,7 +30486,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -30696,7 +30696,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -30766,7 +30766,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -30801,7 +30801,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -30906,7 +30906,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -31221,7 +31221,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -31501,7 +31501,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -31606,7 +31606,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -32376,7 +32376,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -32411,7 +32411,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
@@ -32481,7 +32481,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33006,7 +33006,7 @@
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -33076,7 +33076,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -33216,7 +33216,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -33286,7 +33286,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -33496,7 +33496,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
@@ -33601,7 +33601,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -33671,7 +33671,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
@@ -33986,7 +33986,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
@@ -34021,7 +34021,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G960" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34336,7 +34336,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G980" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -34826,7 +34826,7 @@
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -34966,7 +34966,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -35036,7 +35036,7 @@
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G989" t="inlineStr">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G990" t="inlineStr">
@@ -35141,7 +35141,7 @@
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G992" t="inlineStr">
@@ -35176,7 +35176,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -35246,7 +35246,7 @@
       </c>
       <c r="F995" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G995" t="inlineStr">
@@ -35281,7 +35281,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
@@ -35351,7 +35351,7 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G998" t="inlineStr">
@@ -35526,7 +35526,7 @@
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1003" t="inlineStr">
@@ -35596,7 +35596,7 @@
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1005" t="inlineStr">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1014" t="inlineStr">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1015" t="inlineStr">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1017" t="inlineStr">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -36086,7 +36086,7 @@
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -36226,7 +36226,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1023" t="inlineStr">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1028" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1029" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36716,7 +36716,7 @@
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1037" t="inlineStr">
@@ -36751,7 +36751,7 @@
       </c>
       <c r="F1038" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1038" t="inlineStr">
@@ -36821,7 +36821,7 @@
       </c>
       <c r="F1040" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1040" t="inlineStr">
@@ -36856,7 +36856,7 @@
       </c>
       <c r="F1041" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1041" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1043" t="inlineStr">
@@ -37066,7 +37066,7 @@
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1047" t="inlineStr">
@@ -37206,7 +37206,7 @@
       </c>
       <c r="F1051" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1051" t="inlineStr">
@@ -37276,7 +37276,7 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1053" t="inlineStr">
@@ -38291,7 +38291,7 @@
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1082" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1083" t="inlineStr">
@@ -38361,7 +38361,7 @@
       </c>
       <c r="F1084" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1084" t="inlineStr">
@@ -38396,7 +38396,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1085" t="inlineStr">
@@ -38466,7 +38466,7 @@
       </c>
       <c r="F1087" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1087" t="inlineStr">
@@ -38536,7 +38536,7 @@
       </c>
       <c r="F1089" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1089" t="inlineStr">
@@ -38606,7 +38606,7 @@
       </c>
       <c r="F1091" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1091" t="inlineStr">
@@ -39061,7 +39061,7 @@
       </c>
       <c r="F1104" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1104" t="inlineStr">
@@ -39131,7 +39131,7 @@
       </c>
       <c r="F1106" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1106" t="inlineStr">
@@ -39201,7 +39201,7 @@
       </c>
       <c r="F1108" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1108" t="inlineStr">
@@ -39271,7 +39271,7 @@
       </c>
       <c r="F1110" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1110" t="inlineStr">
@@ -39306,7 +39306,7 @@
       </c>
       <c r="F1111" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1111" t="inlineStr">
@@ -39411,7 +39411,7 @@
       </c>
       <c r="F1114" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1114" t="inlineStr">
@@ -39516,7 +39516,7 @@
       </c>
       <c r="F1117" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1117" t="inlineStr">
@@ -39621,7 +39621,7 @@
       </c>
       <c r="F1120" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1120" t="inlineStr">
@@ -39971,7 +39971,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40041,7 +40041,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40111,7 +40111,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1134" t="inlineStr">
@@ -40146,7 +40146,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1135" t="inlineStr">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
@@ -40216,7 +40216,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1137" t="inlineStr">
@@ -40391,7 +40391,7 @@
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1142" t="inlineStr">
@@ -40461,7 +40461,7 @@
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1144" t="inlineStr">
@@ -40566,7 +40566,7 @@
       </c>
       <c r="F1147" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1147" t="inlineStr">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="F1150" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1150" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40846,7 +40846,7 @@
       </c>
       <c r="F1155" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1155" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="F1156" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1156" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41091,7 +41091,7 @@
       </c>
       <c r="F1162" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1162" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41196,7 +41196,7 @@
       </c>
       <c r="F1165" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1165" t="inlineStr">
@@ -41266,7 +41266,7 @@
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
@@ -41301,7 +41301,7 @@
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1168" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
@@ -41406,7 +41406,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41546,7 +41546,7 @@
       </c>
       <c r="F1175" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1175" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
@@ -41616,7 +41616,7 @@
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
@@ -42246,7 +42246,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -42386,7 +42386,7 @@
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
@@ -42456,7 +42456,7 @@
       </c>
       <c r="F1201" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1201" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:t-jnanagarbha', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -42771,7 +42771,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
@@ -42876,7 +42876,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -42911,7 +42911,7 @@
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1214" t="inlineStr">
@@ -42946,7 +42946,7 @@
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1215" t="inlineStr">
@@ -42981,7 +42981,7 @@
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1216" t="inlineStr">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1217" t="inlineStr">
@@ -43436,7 +43436,7 @@
       </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:ye-shes-sde', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -15051,7 +15051,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -15401,7 +15401,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -16941,7 +16941,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -16976,7 +16976,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -17046,7 +17046,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -18656,7 +18656,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -18901,7 +18901,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -19006,7 +19006,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -19146,7 +19146,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -19216,7 +19216,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -26041,7 +26041,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -29121,7 +29121,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
@@ -29191,7 +29191,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -29226,7 +29226,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G823" t="inlineStr">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G835" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -29856,7 +29856,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -30136,7 +30136,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G849" t="inlineStr">
@@ -30241,7 +30241,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
@@ -30346,7 +30346,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -30451,7 +30451,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -30626,7 +30626,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -30766,7 +30766,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -30836,7 +30836,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -30941,7 +30941,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -31151,7 +31151,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -31221,7 +31221,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -31256,7 +31256,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -31851,7 +31851,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -31956,7 +31956,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
@@ -32061,7 +32061,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G904" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -32236,7 +32236,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -32761,7 +32761,7 @@
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G932" t="inlineStr">
@@ -33076,7 +33076,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -33111,7 +33111,7 @@
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G934" t="inlineStr">
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -33671,7 +33671,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
@@ -33706,7 +33706,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33776,7 +33776,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33951,7 +33951,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G958" t="inlineStr">
@@ -34021,7 +34021,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G960" t="inlineStr">
@@ -34056,7 +34056,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
@@ -34126,7 +34126,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34336,7 +34336,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -34406,7 +34406,7 @@
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G971" t="inlineStr">
@@ -34476,7 +34476,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -34581,7 +34581,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34686,7 +34686,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -34756,7 +34756,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -34826,7 +34826,7 @@
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -35036,7 +35036,7 @@
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G989" t="inlineStr">
@@ -35106,7 +35106,7 @@
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G991" t="inlineStr">
@@ -35176,7 +35176,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -35211,7 +35211,7 @@
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G994" t="inlineStr">
@@ -35281,7 +35281,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
@@ -35316,7 +35316,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
@@ -35386,7 +35386,7 @@
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G999" t="inlineStr">
@@ -35456,7 +35456,7 @@
       </c>
       <c r="F1001" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1001" t="inlineStr">
@@ -35491,7 +35491,7 @@
       </c>
       <c r="F1002" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1002" t="inlineStr">
@@ -35561,7 +35561,7 @@
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1004" t="inlineStr">
@@ -35596,7 +35596,7 @@
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1005" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1006" t="inlineStr">
@@ -35701,7 +35701,7 @@
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1008" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -35911,7 +35911,7 @@
       </c>
       <c r="F1014" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1014" t="inlineStr">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1015" t="inlineStr">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1017" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -36191,7 +36191,7 @@
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1022" t="inlineStr">
@@ -36261,7 +36261,7 @@
       </c>
       <c r="F1024" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1024" t="inlineStr">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1036" t="inlineStr">
@@ -36716,7 +36716,7 @@
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1037" t="inlineStr">
@@ -36751,7 +36751,7 @@
       </c>
       <c r="F1038" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1038" t="inlineStr">
@@ -36786,7 +36786,7 @@
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1039" t="inlineStr">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1042" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1045" t="inlineStr">
@@ -37066,7 +37066,7 @@
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1047" t="inlineStr">
@@ -37101,7 +37101,7 @@
       </c>
       <c r="F1048" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1048" t="inlineStr">
@@ -37171,7 +37171,7 @@
       </c>
       <c r="F1050" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1050" t="inlineStr">
@@ -37276,7 +37276,7 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1053" t="inlineStr">
@@ -37381,7 +37381,7 @@
       </c>
       <c r="F1056" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1056" t="inlineStr">
@@ -37416,7 +37416,7 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1057" t="inlineStr">
@@ -37486,7 +37486,7 @@
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1059" t="inlineStr">
@@ -37521,7 +37521,7 @@
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1060" t="inlineStr">
@@ -37591,7 +37591,7 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1062" t="inlineStr">
@@ -37871,7 +37871,7 @@
       </c>
       <c r="F1070" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1070" t="inlineStr">
@@ -37941,7 +37941,7 @@
       </c>
       <c r="F1072" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1072" t="inlineStr">
@@ -38956,7 +38956,7 @@
       </c>
       <c r="F1101" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1101" t="inlineStr">
@@ -38991,7 +38991,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
@@ -39026,7 +39026,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1103" t="inlineStr">
@@ -39061,7 +39061,7 @@
       </c>
       <c r="F1104" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1104" t="inlineStr">
@@ -39131,7 +39131,7 @@
       </c>
       <c r="F1106" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1106" t="inlineStr">
@@ -39201,7 +39201,7 @@
       </c>
       <c r="F1108" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1108" t="inlineStr">
@@ -39271,7 +39271,7 @@
       </c>
       <c r="F1110" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1110" t="inlineStr">
@@ -39726,7 +39726,7 @@
       </c>
       <c r="F1123" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1123" t="inlineStr">
@@ -39796,7 +39796,7 @@
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1125" t="inlineStr">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
@@ -39936,7 +39936,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
@@ -39971,7 +39971,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40181,7 +40181,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
@@ -40286,7 +40286,7 @@
       </c>
       <c r="F1139" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1139" t="inlineStr">
@@ -40916,7 +40916,7 @@
       </c>
       <c r="F1157" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1157" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -40986,7 +40986,7 @@
       </c>
       <c r="F1159" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1159" t="inlineStr">
@@ -41021,7 +41021,7 @@
       </c>
       <c r="F1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1160" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41091,7 +41091,7 @@
       </c>
       <c r="F1162" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1162" t="inlineStr">
@@ -41126,7 +41126,7 @@
       </c>
       <c r="F1163" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1163" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41336,7 +41336,7 @@
       </c>
       <c r="F1169" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1169" t="inlineStr">
@@ -41616,7 +41616,7 @@
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
@@ -41686,7 +41686,7 @@
       </c>
       <c r="F1179" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1179" t="inlineStr">
@@ -41721,7 +41721,7 @@
       </c>
       <c r="F1180" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1180" t="inlineStr">
@@ -41791,7 +41791,7 @@
       </c>
       <c r="F1182" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1182" t="inlineStr">
@@ -41826,7 +41826,7 @@
       </c>
       <c r="F1183" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1183" t="inlineStr">
@@ -41861,7 +41861,7 @@
       </c>
       <c r="F1184" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G1184" t="inlineStr">
@@ -41896,7 +41896,7 @@
       </c>
       <c r="F1185" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1185" t="inlineStr">
@@ -41966,7 +41966,7 @@
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G1187" t="inlineStr">
@@ -42001,7 +42001,7 @@
       </c>
       <c r="F1188" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1188" t="inlineStr">
@@ -42036,7 +42036,7 @@
       </c>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
@@ -42141,7 +42141,7 @@
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
@@ -42246,7 +42246,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -42351,7 +42351,7 @@
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -42421,7 +42421,7 @@
       </c>
       <c r="F1200" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1200" t="inlineStr">
@@ -42456,7 +42456,7 @@
       </c>
       <c r="F1201" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1201" t="inlineStr">
@@ -42491,7 +42491,7 @@
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1202" t="inlineStr">
@@ -42526,7 +42526,7 @@
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1203" t="inlineStr">
@@ -42561,7 +42561,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:surendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1204" t="inlineStr">
@@ -42596,7 +42596,7 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
@@ -43191,7 +43191,7 @@
       </c>
       <c r="F1222" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1222" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1224" t="inlineStr">
@@ -43331,7 +43331,7 @@
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1226" t="inlineStr">
@@ -43401,7 +43401,7 @@
       </c>
       <c r="F1228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1228" t="inlineStr">
@@ -43576,7 +43576,7 @@
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1233" t="inlineStr">
@@ -43646,7 +43646,7 @@
       </c>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:ye-shes-snying-po', 'eft:yesh-nyingpo', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1235" t="inlineStr">
@@ -43681,7 +43681,7 @@
       </c>
       <c r="F1236" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1236" t="inlineStr">
@@ -43716,7 +43716,7 @@
       </c>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1237" t="inlineStr">
@@ -43751,7 +43751,7 @@
       </c>
       <c r="F1238" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1238" t="inlineStr">
@@ -43786,7 +43786,7 @@
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1239" t="inlineStr">
@@ -43821,7 +43821,7 @@
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1240" t="inlineStr">
@@ -43856,7 +43856,7 @@
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1241" t="inlineStr">
@@ -43891,7 +43891,7 @@
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1242" t="inlineStr">
@@ -43926,7 +43926,7 @@
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1243" t="inlineStr">
@@ -43961,7 +43961,7 @@
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1244" t="inlineStr">
@@ -44381,7 +44381,7 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1256" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7106,7 +7106,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7316,7 +7316,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9906,7 +9906,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -12146,7 +12146,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -15051,7 +15051,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -15156,7 +15156,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -16941,7 +16941,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -17011,7 +17011,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -18481,7 +18481,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -18621,7 +18621,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -25656,7 +25656,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
@@ -28421,7 +28421,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G800" t="inlineStr">
@@ -28456,7 +28456,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -28666,7 +28666,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G807" t="inlineStr">
@@ -28701,7 +28701,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G808" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -28876,7 +28876,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -29191,7 +29191,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -29261,7 +29261,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -29541,7 +29541,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
@@ -29856,7 +29856,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -29961,7 +29961,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -30066,7 +30066,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -30136,7 +30136,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G849" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -30241,7 +30241,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -30346,7 +30346,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -30451,7 +30451,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
@@ -30486,7 +30486,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -30626,7 +30626,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -30766,7 +30766,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -30836,7 +30836,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -30941,7 +30941,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -31466,7 +31466,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -31501,7 +31501,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -31606,7 +31606,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -31676,7 +31676,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -31851,7 +31851,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -31956,7 +31956,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -32236,7 +32236,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -32376,7 +32376,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -32446,7 +32446,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -32481,7 +32481,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -32761,7 +32761,7 @@
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
@@ -32796,7 +32796,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33041,7 +33041,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G932" t="inlineStr">
@@ -33076,7 +33076,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -33286,7 +33286,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -33391,7 +33391,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -33671,7 +33671,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33881,7 +33881,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
@@ -33951,7 +33951,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G958" t="inlineStr">
@@ -34021,7 +34021,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G960" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34126,7 +34126,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34301,7 +34301,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G968" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34476,7 +34476,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G980" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -34826,7 +34826,7 @@
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G990" t="inlineStr">
@@ -35106,7 +35106,7 @@
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G991" t="inlineStr">
@@ -35176,7 +35176,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -35211,7 +35211,7 @@
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G994" t="inlineStr">
@@ -35246,7 +35246,7 @@
       </c>
       <c r="F995" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G995" t="inlineStr">
@@ -35316,7 +35316,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
@@ -35351,7 +35351,7 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G998" t="inlineStr">
@@ -35421,7 +35421,7 @@
       </c>
       <c r="F1000" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1000" t="inlineStr">
@@ -35456,7 +35456,7 @@
       </c>
       <c r="F1001" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1001" t="inlineStr">
@@ -35526,7 +35526,7 @@
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1003" t="inlineStr">
@@ -35561,7 +35561,7 @@
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1004" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1006" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
@@ -35876,7 +35876,7 @@
       </c>
       <c r="F1013" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1013" t="inlineStr">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1015" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -36191,7 +36191,7 @@
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1022" t="inlineStr">
@@ -36226,7 +36226,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1023" t="inlineStr">
@@ -36296,7 +36296,7 @@
       </c>
       <c r="F1025" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1025" t="inlineStr">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -36366,7 +36366,7 @@
       </c>
       <c r="F1027" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1027" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1036" t="inlineStr">
@@ -36716,7 +36716,7 @@
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1037" t="inlineStr">
@@ -36786,7 +36786,7 @@
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1039" t="inlineStr">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1042" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1045" t="inlineStr">
@@ -37031,7 +37031,7 @@
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1046" t="inlineStr">
@@ -37101,7 +37101,7 @@
       </c>
       <c r="F1048" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1048" t="inlineStr">
@@ -37136,7 +37136,7 @@
       </c>
       <c r="F1049" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1049" t="inlineStr">
@@ -37206,7 +37206,7 @@
       </c>
       <c r="F1051" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1051" t="inlineStr">
@@ -37346,7 +37346,7 @@
       </c>
       <c r="F1055" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1055" t="inlineStr">
@@ -37486,7 +37486,7 @@
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1059" t="inlineStr">
@@ -37556,7 +37556,7 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1061" t="inlineStr">
@@ -38571,7 +38571,7 @@
       </c>
       <c r="F1090" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1090" t="inlineStr">
@@ -38606,7 +38606,7 @@
       </c>
       <c r="F1091" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1091" t="inlineStr">
@@ -38641,7 +38641,7 @@
       </c>
       <c r="F1092" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1092" t="inlineStr">
@@ -38676,7 +38676,7 @@
       </c>
       <c r="F1093" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1093" t="inlineStr">
@@ -38746,7 +38746,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1095" t="inlineStr">
@@ -38816,7 +38816,7 @@
       </c>
       <c r="F1097" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1097" t="inlineStr">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1099" t="inlineStr">
@@ -39341,7 +39341,7 @@
       </c>
       <c r="F1112" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1112" t="inlineStr">
@@ -39411,7 +39411,7 @@
       </c>
       <c r="F1114" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1114" t="inlineStr">
@@ -39481,7 +39481,7 @@
       </c>
       <c r="F1116" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1116" t="inlineStr">
@@ -39551,7 +39551,7 @@
       </c>
       <c r="F1118" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1118" t="inlineStr">
@@ -40531,7 +40531,7 @@
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
@@ -40566,7 +40566,7 @@
       </c>
       <c r="F1147" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1147" t="inlineStr">
@@ -40601,7 +40601,7 @@
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="F1150" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1150" t="inlineStr">
@@ -40706,7 +40706,7 @@
       </c>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -41021,7 +41021,7 @@
       </c>
       <c r="F1160" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1160" t="inlineStr">
@@ -41126,7 +41126,7 @@
       </c>
       <c r="F1163" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1163" t="inlineStr">
@@ -41231,7 +41231,7 @@
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
@@ -41301,7 +41301,7 @@
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1168" t="inlineStr">
@@ -41336,7 +41336,7 @@
       </c>
       <c r="F1169" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1169" t="inlineStr">
@@ -41406,7 +41406,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
@@ -41441,7 +41441,7 @@
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
@@ -41616,7 +41616,7 @@
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
@@ -41721,7 +41721,7 @@
       </c>
       <c r="F1180" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1180" t="inlineStr">
@@ -41756,7 +41756,7 @@
       </c>
       <c r="F1181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1181" t="inlineStr">
@@ -41826,7 +41826,7 @@
       </c>
       <c r="F1183" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1183" t="inlineStr">
@@ -41861,7 +41861,7 @@
       </c>
       <c r="F1184" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1184" t="inlineStr">
@@ -41931,7 +41931,7 @@
       </c>
       <c r="F1186" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1186" t="inlineStr">
@@ -41966,7 +41966,7 @@
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1187" t="inlineStr">
@@ -42036,7 +42036,7 @@
       </c>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
@@ -42071,7 +42071,7 @@
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
@@ -42141,7 +42141,7 @@
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -42176,7 +42176,7 @@
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42876,7 +42876,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -42946,7 +42946,7 @@
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1215" t="inlineStr">
@@ -43016,7 +43016,7 @@
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1217" t="inlineStr">
@@ -43191,7 +43191,7 @@
       </c>
       <c r="F1222" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1222" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G1224" t="inlineStr">
@@ -43296,7 +43296,7 @@
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>{'eft:paltsek', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:ban-de-dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1225" t="inlineStr">
@@ -43331,7 +43331,7 @@
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1226" t="inlineStr">
@@ -43366,7 +43366,7 @@
       </c>
       <c r="F1227" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1227" t="inlineStr">
@@ -43401,7 +43401,7 @@
       </c>
       <c r="F1228" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1228" t="inlineStr">
@@ -43436,7 +43436,7 @@
       </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">
@@ -43471,7 +43471,7 @@
       </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1230" t="inlineStr">
@@ -43506,7 +43506,7 @@
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1231" t="inlineStr">
@@ -43541,7 +43541,7 @@
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G1232" t="inlineStr">
@@ -43576,7 +43576,7 @@
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1233" t="inlineStr">
@@ -43996,7 +43996,7 @@
       </c>
       <c r="F1245" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:zhang-yesh-d-', 'eft:yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de'}</t>
+          <t>{'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
         </is>
       </c>
       <c r="G1245" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -18726,7 +18726,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -19496,7 +19496,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -26076,7 +26076,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -26426,7 +26426,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
@@ -28246,7 +28246,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -28281,7 +28281,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -28421,7 +28421,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G800" t="inlineStr">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G805" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -28981,7 +28981,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -29261,7 +29261,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
@@ -29506,7 +29506,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G831" t="inlineStr">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -30206,7 +30206,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -30486,7 +30486,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -31221,7 +31221,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -31256,7 +31256,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -31501,7 +31501,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -31921,7 +31921,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32131,7 +32131,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
@@ -32236,7 +32236,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -32796,7 +32796,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33076,7 +33076,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -33391,7 +33391,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -33706,7 +33706,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33881,7 +33881,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
@@ -33986,7 +33986,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
@@ -34056,7 +34056,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -34231,7 +34231,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34336,7 +34336,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34686,7 +34686,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -34756,7 +34756,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -34966,7 +34966,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G990" t="inlineStr">
@@ -35176,7 +35176,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -35246,7 +35246,7 @@
       </c>
       <c r="F995" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G995" t="inlineStr">
@@ -35316,7 +35316,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
@@ -35386,7 +35386,7 @@
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G999" t="inlineStr">
@@ -35561,7 +35561,7 @@
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1004" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1006" t="inlineStr">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -36086,7 +36086,7 @@
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -36156,7 +36156,7 @@
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1021" t="inlineStr">
@@ -36191,7 +36191,7 @@
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1022" t="inlineStr">
@@ -36226,7 +36226,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1023" t="inlineStr">
@@ -36296,7 +36296,7 @@
       </c>
       <c r="F1025" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1025" t="inlineStr">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1028" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1029" t="inlineStr">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1030" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -36541,7 +36541,7 @@
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1032" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36646,7 +36646,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1035" t="inlineStr">
@@ -36786,7 +36786,7 @@
       </c>
       <c r="F1039" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1039" t="inlineStr">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1042" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1043" t="inlineStr">
@@ -36961,7 +36961,7 @@
       </c>
       <c r="F1044" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1044" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1045" t="inlineStr">
@@ -38011,7 +38011,7 @@
       </c>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1074" t="inlineStr">
@@ -38046,7 +38046,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1075" t="inlineStr">
@@ -38081,7 +38081,7 @@
       </c>
       <c r="F1076" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1076" t="inlineStr">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
@@ -38186,7 +38186,7 @@
       </c>
       <c r="F1079" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1079" t="inlineStr">
@@ -38256,7 +38256,7 @@
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1081" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1083" t="inlineStr">
@@ -38746,7 +38746,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1095" t="inlineStr">
@@ -38781,7 +38781,7 @@
       </c>
       <c r="F1096" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1096" t="inlineStr">
@@ -38816,7 +38816,7 @@
       </c>
       <c r="F1097" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1097" t="inlineStr">
@@ -38851,7 +38851,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1098" t="inlineStr">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1099" t="inlineStr">
@@ -38921,7 +38921,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1100" t="inlineStr">
@@ -38956,7 +38956,7 @@
       </c>
       <c r="F1101" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1101" t="inlineStr">
@@ -38991,7 +38991,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
@@ -39831,7 +39831,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -39936,7 +39936,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
@@ -39971,7 +39971,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40041,7 +40041,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40251,7 +40251,7 @@
       </c>
       <c r="F1138" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1138" t="inlineStr">
@@ -40321,7 +40321,7 @@
       </c>
       <c r="F1140" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1140" t="inlineStr">
@@ -40426,7 +40426,7 @@
       </c>
       <c r="F1143" t="inlineStr">
         <is>
-          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
+          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
         </is>
       </c>
       <c r="G1143" t="inlineStr">
@@ -40531,7 +40531,7 @@
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
@@ -40601,7 +40601,7 @@
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
@@ -40706,7 +40706,7 @@
       </c>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40811,7 +40811,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
@@ -40916,7 +40916,7 @@
       </c>
       <c r="F1157" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1157" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -41021,7 +41021,7 @@
       </c>
       <c r="F1160" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1160" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41126,7 +41126,7 @@
       </c>
       <c r="F1163" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1163" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41231,7 +41231,7 @@
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
@@ -41266,7 +41266,7 @@
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
@@ -41336,7 +41336,7 @@
       </c>
       <c r="F1169" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1169" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
@@ -41406,7 +41406,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
@@ -41441,7 +41441,7 @@
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
@@ -42071,7 +42071,7 @@
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
@@ -42141,7 +42141,7 @@
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -42176,7 +42176,7 @@
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
@@ -42246,7 +42246,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
@@ -42281,7 +42281,7 @@
       </c>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -42491,7 +42491,7 @@
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1202" t="inlineStr">
@@ -42561,7 +42561,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1204" t="inlineStr">
@@ -42596,7 +42596,7 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
@@ -42666,7 +42666,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1207" t="inlineStr">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -42771,7 +42771,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
+          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
@@ -42876,7 +42876,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G1224" t="inlineStr">
@@ -43296,7 +43296,7 @@
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1225" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
+          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
@@ -28246,7 +28246,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -28281,7 +28281,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -28981,7 +28981,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -29261,7 +29261,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
@@ -29506,7 +29506,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G831" t="inlineStr">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -30206,7 +30206,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -30486,7 +30486,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -30836,7 +30836,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -31151,7 +31151,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -31221,7 +31221,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -31256,7 +31256,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -31501,7 +31501,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -31921,7 +31921,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32131,7 +32131,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
@@ -32236,7 +32236,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -32796,7 +32796,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33076,7 +33076,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -33391,7 +33391,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -33706,7 +33706,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33881,7 +33881,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
@@ -33986,7 +33986,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
@@ -34056,7 +34056,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -34231,7 +34231,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34336,7 +34336,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34686,7 +34686,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -34756,7 +34756,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -34966,7 +34966,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G990" t="inlineStr">
@@ -35176,7 +35176,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -35246,7 +35246,7 @@
       </c>
       <c r="F995" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G995" t="inlineStr">
@@ -35316,7 +35316,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
@@ -35386,7 +35386,7 @@
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G999" t="inlineStr">
@@ -35561,7 +35561,7 @@
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1004" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1006" t="inlineStr">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1015" t="inlineStr">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -36156,7 +36156,7 @@
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1021" t="inlineStr">
@@ -36226,7 +36226,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1023" t="inlineStr">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1029" t="inlineStr">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1030" t="inlineStr">
@@ -36541,7 +36541,7 @@
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1032" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
@@ -36646,7 +36646,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1035" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1043" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1045" t="inlineStr">
@@ -38011,7 +38011,7 @@
       </c>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1074" t="inlineStr">
@@ -38046,7 +38046,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1075" t="inlineStr">
@@ -38081,7 +38081,7 @@
       </c>
       <c r="F1076" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1076" t="inlineStr">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
@@ -38186,7 +38186,7 @@
       </c>
       <c r="F1079" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1079" t="inlineStr">
@@ -38256,7 +38256,7 @@
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1081" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1083" t="inlineStr">
@@ -38781,7 +38781,7 @@
       </c>
       <c r="F1096" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1096" t="inlineStr">
@@ -38851,7 +38851,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1098" t="inlineStr">
@@ -38921,7 +38921,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1100" t="inlineStr">
@@ -38991,7 +38991,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
@@ -39026,7 +39026,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1103" t="inlineStr">
@@ -39131,7 +39131,7 @@
       </c>
       <c r="F1106" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1106" t="inlineStr">
@@ -39236,7 +39236,7 @@
       </c>
       <c r="F1109" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1109" t="inlineStr">
@@ -39341,7 +39341,7 @@
       </c>
       <c r="F1112" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1112" t="inlineStr">
@@ -39831,7 +39831,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -39936,7 +39936,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
@@ -39971,7 +39971,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40041,7 +40041,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40251,7 +40251,7 @@
       </c>
       <c r="F1138" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1138" t="inlineStr">
@@ -40531,7 +40531,7 @@
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
@@ -40601,7 +40601,7 @@
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
@@ -40706,7 +40706,7 @@
       </c>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40811,7 +40811,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="F1156" t="inlineStr">
         <is>
-          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
+          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
         </is>
       </c>
       <c r="G1156" t="inlineStr">
@@ -40916,7 +40916,7 @@
       </c>
       <c r="F1157" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1157" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -41021,7 +41021,7 @@
       </c>
       <c r="F1160" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1160" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41126,7 +41126,7 @@
       </c>
       <c r="F1163" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1163" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41231,7 +41231,7 @@
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
@@ -41266,7 +41266,7 @@
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
@@ -41336,7 +41336,7 @@
       </c>
       <c r="F1169" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1169" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
@@ -41406,7 +41406,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
@@ -41441,7 +41441,7 @@
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:silendrabodhi', 'eft:srilendrabodhi'}</t>
+          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
@@ -42176,7 +42176,7 @@
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -42246,7 +42246,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -42491,7 +42491,7 @@
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1202" t="inlineStr">
@@ -42561,7 +42561,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
         </is>
       </c>
       <c r="G1204" t="inlineStr">
@@ -42596,7 +42596,7 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek'}</t>
+          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
@@ -42666,7 +42666,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1207" t="inlineStr">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -42771,7 +42771,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
@@ -42876,7 +42876,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -43296,7 +43296,7 @@
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>{'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
         </is>
       </c>
       <c r="G1225" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -17921,7 +17921,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -27966,7 +27966,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -28211,7 +28211,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
@@ -28246,7 +28246,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -28281,7 +28281,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -28981,7 +28981,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G819" t="inlineStr">
@@ -29261,7 +29261,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G824" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>{'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:ban-de-dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
@@ -29506,7 +29506,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G831" t="inlineStr">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -29891,7 +29891,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G842" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -30101,7 +30101,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -30206,7 +30206,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -30381,7 +30381,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -30486,7 +30486,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -30591,7 +30591,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -30731,7 +30731,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -30836,7 +30836,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G869" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -31151,7 +31151,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -31221,7 +31221,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G880" t="inlineStr">
@@ -31256,7 +31256,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -31326,7 +31326,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -31501,7 +31501,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -31711,7 +31711,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
@@ -31781,7 +31781,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G896" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -31921,7 +31921,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
@@ -32096,7 +32096,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32131,7 +32131,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G908" t="inlineStr">
@@ -32236,7 +32236,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -32586,7 +32586,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32691,7 +32691,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -32796,7 +32796,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33076,7 +33076,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -33146,7 +33146,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -33391,7 +33391,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -33461,7 +33461,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -33706,7 +33706,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
@@ -33881,7 +33881,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
@@ -33986,7 +33986,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G959" t="inlineStr">
@@ -34056,7 +34056,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G961" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -34231,7 +34231,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34336,7 +34336,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34511,7 +34511,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34686,7 +34686,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -34756,7 +34756,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -34861,7 +34861,7 @@
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -34966,7 +34966,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="F990" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G990" t="inlineStr">
@@ -35176,7 +35176,7 @@
       </c>
       <c r="F993" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -35246,7 +35246,7 @@
       </c>
       <c r="F995" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G995" t="inlineStr">
@@ -35316,7 +35316,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
@@ -35386,7 +35386,7 @@
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G999" t="inlineStr">
@@ -35561,7 +35561,7 @@
       </c>
       <c r="F1004" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1004" t="inlineStr">
@@ -35631,7 +35631,7 @@
       </c>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1006" t="inlineStr">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -35736,7 +35736,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="F1015" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1015" t="inlineStr">
@@ -36051,7 +36051,7 @@
       </c>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -36086,7 +36086,7 @@
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -36121,7 +36121,7 @@
       </c>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -36156,7 +36156,7 @@
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1021" t="inlineStr">
@@ -36191,7 +36191,7 @@
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1022" t="inlineStr">
@@ -36226,7 +36226,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1023" t="inlineStr">
@@ -36296,7 +36296,7 @@
       </c>
       <c r="F1025" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1025" t="inlineStr">
@@ -36331,7 +36331,7 @@
       </c>
       <c r="F1026" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1026" t="inlineStr">
@@ -36401,7 +36401,7 @@
       </c>
       <c r="F1028" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1028" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="F1029" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1029" t="inlineStr">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1030" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -36541,7 +36541,7 @@
       </c>
       <c r="F1032" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1032" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36646,7 +36646,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1035" t="inlineStr">
@@ -36891,7 +36891,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1042" t="inlineStr">
@@ -36926,7 +36926,7 @@
       </c>
       <c r="F1043" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1043" t="inlineStr">
@@ -36961,7 +36961,7 @@
       </c>
       <c r="F1044" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1044" t="inlineStr">
@@ -36996,7 +36996,7 @@
       </c>
       <c r="F1045" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1045" t="inlineStr">
@@ -38011,7 +38011,7 @@
       </c>
       <c r="F1074" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G1074" t="inlineStr">
@@ -38046,7 +38046,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1075" t="inlineStr">
@@ -38081,7 +38081,7 @@
       </c>
       <c r="F1076" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G1076" t="inlineStr">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
@@ -38186,7 +38186,7 @@
       </c>
       <c r="F1079" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1079" t="inlineStr">
@@ -38256,7 +38256,7 @@
       </c>
       <c r="F1081" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1081" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="F1083" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1083" t="inlineStr">
@@ -38746,7 +38746,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1095" t="inlineStr">
@@ -38781,7 +38781,7 @@
       </c>
       <c r="F1096" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1096" t="inlineStr">
@@ -38816,7 +38816,7 @@
       </c>
       <c r="F1097" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1097" t="inlineStr">
@@ -38851,7 +38851,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1098" t="inlineStr">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1099" t="inlineStr">
@@ -38921,7 +38921,7 @@
       </c>
       <c r="F1100" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1100" t="inlineStr">
@@ -38956,7 +38956,7 @@
       </c>
       <c r="F1101" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1101" t="inlineStr">
@@ -38991,7 +38991,7 @@
       </c>
       <c r="F1102" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1102" t="inlineStr">
@@ -39026,7 +39026,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1103" t="inlineStr">
@@ -39131,7 +39131,7 @@
       </c>
       <c r="F1106" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1106" t="inlineStr">
@@ -39236,7 +39236,7 @@
       </c>
       <c r="F1109" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1109" t="inlineStr">
@@ -39341,7 +39341,7 @@
       </c>
       <c r="F1112" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1112" t="inlineStr">
@@ -39831,7 +39831,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -39936,7 +39936,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
@@ -39971,7 +39971,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40041,7 +40041,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40251,7 +40251,7 @@
       </c>
       <c r="F1138" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1138" t="inlineStr">
@@ -40531,7 +40531,7 @@
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
@@ -40601,7 +40601,7 @@
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
@@ -40706,7 +40706,7 @@
       </c>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40811,7 +40811,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="F1156" t="inlineStr">
         <is>
-          <t>{'eft:jnanasidhi', 'eft:jnanasiddhi'}</t>
+          <t>{'eft:jnanasiddhi', 'eft:jnanasidhi'}</t>
         </is>
       </c>
       <c r="G1156" t="inlineStr">
@@ -40916,7 +40916,7 @@
       </c>
       <c r="F1157" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1157" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -41021,7 +41021,7 @@
       </c>
       <c r="F1160" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1160" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41126,7 +41126,7 @@
       </c>
       <c r="F1163" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1163" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41231,7 +41231,7 @@
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
@@ -41266,7 +41266,7 @@
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
@@ -41336,7 +41336,7 @@
       </c>
       <c r="F1169" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1169" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
@@ -41406,7 +41406,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
@@ -41441,7 +41441,7 @@
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>{'eft:surendrabodhi', 'eft:srilendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41581,7 +41581,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
@@ -41651,7 +41651,7 @@
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
@@ -42071,7 +42071,7 @@
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
@@ -42141,7 +42141,7 @@
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -42176,7 +42176,7 @@
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
@@ -42246,7 +42246,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
@@ -42281,7 +42281,7 @@
       </c>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -42316,7 +42316,7 @@
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -42491,7 +42491,7 @@
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1202" t="inlineStr">
@@ -42561,7 +42561,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:ye-shes-snying-po', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G1204" t="inlineStr">
@@ -42596,7 +42596,7 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>{'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ska-ba-dpal-brtsegs', 'eft:dpal-brtsegs', 'eft:paltsek', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:paltsek', 'eft:ska-ba-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
@@ -42666,7 +42666,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1207" t="inlineStr">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -42771,7 +42771,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra', 'eft:jinamitra-k-'}</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
@@ -42876,7 +42876,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
+          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
         </is>
       </c>
       <c r="G1224" t="inlineStr">
@@ -43296,7 +43296,7 @@
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:ye-shes-sde', 'eft:yesh-d-', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:band-yesh-de'}</t>
         </is>
       </c>
       <c r="G1225" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14701,7 +14701,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -14911,7 +14911,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>{'eft:munivarman', 'eft:munivarma'}</t>
+          <t>{'eft:munivarma', 'eft:munivarman'}</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'eft:klu-i-rgyal-mtshan', 'eft:cog-ro-klu-i-rgyal-mtshan'}</t>
+          <t>{'eft:cog-ro-klu-i-rgyal-mtshan', 'eft:klu-i-rgyal-mtshan'}</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
@@ -17711,7 +17711,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>{'eft:sarvajnadeva', 'eft:sarvanyadeva'}</t>
+          <t>{'eft:sarvanyadeva', 'eft:sarvajnadeva'}</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -18411,7 +18411,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -19531,7 +19531,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -26111,7 +26111,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -26461,7 +26461,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -28001,7 +28001,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -28246,7 +28246,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -28281,7 +28281,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -28386,7 +28386,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
@@ -28421,7 +28421,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G800" t="inlineStr">
@@ -28456,7 +28456,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -28631,7 +28631,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G810" t="inlineStr">
@@ -28841,7 +28841,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G812" t="inlineStr">
@@ -28876,7 +28876,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G817" t="inlineStr">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -29121,7 +29121,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G820" t="inlineStr">
@@ -29296,7 +29296,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
@@ -29331,7 +29331,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -29541,7 +29541,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
@@ -29611,7 +29611,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -29646,7 +29646,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G835" t="inlineStr">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
@@ -29751,7 +29751,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
@@ -29821,7 +29821,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -29856,7 +29856,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
@@ -29926,7 +29926,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -29961,7 +29961,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G844" t="inlineStr">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -30066,7 +30066,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -30136,7 +30136,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G849" t="inlineStr">
@@ -30206,7 +30206,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -30241,7 +30241,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
@@ -30311,7 +30311,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G854" t="inlineStr">
@@ -30346,7 +30346,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -30451,7 +30451,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -30556,7 +30556,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -30626,7 +30626,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -30766,7 +30766,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -30871,7 +30871,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G870" t="inlineStr">
@@ -31011,7 +31011,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G874" t="inlineStr">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31081,7 +31081,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
@@ -31151,7 +31151,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G878" t="inlineStr">
@@ -31256,7 +31256,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -31291,7 +31291,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -31361,7 +31361,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -31431,7 +31431,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
@@ -31536,7 +31536,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -31746,7 +31746,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
@@ -31816,7 +31816,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -31851,7 +31851,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
@@ -31921,7 +31921,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
@@ -31956,7 +31956,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
@@ -32026,7 +32026,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G903" t="inlineStr">
@@ -32061,7 +32061,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G904" t="inlineStr">
@@ -32131,7 +32131,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -32236,7 +32236,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -32271,7 +32271,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -32306,7 +32306,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -32376,7 +32376,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
@@ -32621,7 +32621,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -32656,7 +32656,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -32726,7 +32726,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -32831,7 +32831,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
@@ -32866,7 +32866,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G927" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -32971,7 +32971,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G930" t="inlineStr">
@@ -33006,7 +33006,7 @@
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -33111,7 +33111,7 @@
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G934" t="inlineStr">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -33216,7 +33216,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -33286,7 +33286,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G939" t="inlineStr">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -33496,7 +33496,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
@@ -33601,7 +33601,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -33671,7 +33671,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G950" t="inlineStr">
@@ -33741,7 +33741,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -33776,7 +33776,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G955" t="inlineStr">
@@ -33916,7 +33916,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G957" t="inlineStr">
@@ -33951,7 +33951,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G958" t="inlineStr">
@@ -34021,7 +34021,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G960" t="inlineStr">
@@ -34091,7 +34091,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34126,7 +34126,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34301,7 +34301,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G968" t="inlineStr">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34406,7 +34406,7 @@
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G971" t="inlineStr">
@@ -34476,7 +34476,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
@@ -34546,7 +34546,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34581,7 +34581,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34686,7 +34686,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="F980" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G980" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -34826,7 +34826,7 @@
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -35001,7 +35001,7 @@
       </c>
       <c r="F988" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -35036,7 +35036,7 @@
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G989" t="inlineStr">
@@ -35106,7 +35106,7 @@
       </c>
       <c r="F991" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G991" t="inlineStr">
@@ -35211,7 +35211,7 @@
       </c>
       <c r="F994" t="inlineStr">
         <is>
-          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
+          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
         </is>
       </c>
       <c r="G994" t="inlineStr">
@@ -35281,7 +35281,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
@@ -35351,7 +35351,7 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G998" t="inlineStr">
@@ -35421,7 +35421,7 @@
       </c>
       <c r="F1000" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1000" t="inlineStr">
@@ -35596,7 +35596,7 @@
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1005" t="inlineStr">
@@ -35666,7 +35666,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -35701,7 +35701,7 @@
       </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1008" t="inlineStr">
@@ -35771,7 +35771,7 @@
       </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -35806,7 +35806,7 @@
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
@@ -35841,7 +35841,7 @@
       </c>
       <c r="F1012" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1012" t="inlineStr">
@@ -35876,7 +35876,7 @@
       </c>
       <c r="F1013" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1013" t="inlineStr">
@@ -35981,7 +35981,7 @@
       </c>
       <c r="F1016" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1016" t="inlineStr">
@@ -36086,7 +36086,7 @@
       </c>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -36156,7 +36156,7 @@
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1021" t="inlineStr">
@@ -36191,7 +36191,7 @@
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1022" t="inlineStr">
@@ -36261,7 +36261,7 @@
       </c>
       <c r="F1024" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1024" t="inlineStr">
@@ -36366,7 +36366,7 @@
       </c>
       <c r="F1027" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1027" t="inlineStr">
@@ -36471,7 +36471,7 @@
       </c>
       <c r="F1030" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1030" t="inlineStr">
@@ -36506,7 +36506,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1031" t="inlineStr">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="F1033" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1033" t="inlineStr">
@@ -36611,7 +36611,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1034" t="inlineStr">
@@ -36681,7 +36681,7 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1036" t="inlineStr">
@@ -36821,7 +36821,7 @@
       </c>
       <c r="F1040" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G1040" t="inlineStr">
@@ -36961,7 +36961,7 @@
       </c>
       <c r="F1044" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1044" t="inlineStr">
@@ -37031,7 +37031,7 @@
       </c>
       <c r="F1046" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1046" t="inlineStr">
@@ -38046,7 +38046,7 @@
       </c>
       <c r="F1075" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1075" t="inlineStr">
@@ -38081,7 +38081,7 @@
       </c>
       <c r="F1076" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1076" t="inlineStr">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="F1077" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1077" t="inlineStr">
@@ -38151,7 +38151,7 @@
       </c>
       <c r="F1078" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1078" t="inlineStr">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="F1080" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1080" t="inlineStr">
@@ -38291,7 +38291,7 @@
       </c>
       <c r="F1082" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1082" t="inlineStr">
@@ -38361,7 +38361,7 @@
       </c>
       <c r="F1084" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1084" t="inlineStr">
@@ -38816,7 +38816,7 @@
       </c>
       <c r="F1097" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1097" t="inlineStr">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="F1099" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1099" t="inlineStr">
@@ -38956,7 +38956,7 @@
       </c>
       <c r="F1101" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1101" t="inlineStr">
@@ -39026,7 +39026,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1103" t="inlineStr">
@@ -39061,7 +39061,7 @@
       </c>
       <c r="F1104" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1104" t="inlineStr">
@@ -39166,7 +39166,7 @@
       </c>
       <c r="F1107" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1107" t="inlineStr">
@@ -39271,7 +39271,7 @@
       </c>
       <c r="F1110" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1110" t="inlineStr">
@@ -39376,7 +39376,7 @@
       </c>
       <c r="F1113" t="inlineStr">
         <is>
-          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
+          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1113" t="inlineStr">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
@@ -39901,7 +39901,7 @@
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -39936,7 +39936,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
@@ -39971,7 +39971,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40041,7 +40041,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
@@ -40076,7 +40076,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40111,7 +40111,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1134" t="inlineStr">
@@ -40286,7 +40286,7 @@
       </c>
       <c r="F1139" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1139" t="inlineStr">
@@ -40356,7 +40356,7 @@
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G1141" t="inlineStr">
@@ -40461,7 +40461,7 @@
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>{'eft:dipamkarasrijnana', 'eft:dipamkara-srijnana'}</t>
+          <t>{'eft:dipamkara-srijnana', 'eft:dipamkarasrijnana'}</t>
         </is>
       </c>
       <c r="G1144" t="inlineStr">
@@ -40566,7 +40566,7 @@
       </c>
       <c r="F1147" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1147" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
@@ -40671,7 +40671,7 @@
       </c>
       <c r="F1150" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1150" t="inlineStr">
@@ -40741,7 +40741,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40776,7 +40776,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40846,7 +40846,7 @@
       </c>
       <c r="F1155" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1155" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -40986,7 +40986,7 @@
       </c>
       <c r="F1159" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1159" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41091,7 +41091,7 @@
       </c>
       <c r="F1162" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1162" t="inlineStr">
@@ -41161,7 +41161,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41196,7 +41196,7 @@
       </c>
       <c r="F1165" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1165" t="inlineStr">
@@ -41266,7 +41266,7 @@
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
@@ -41301,7 +41301,7 @@
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1168" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="F1170" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1170" t="inlineStr">
@@ -41406,7 +41406,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1171" t="inlineStr">
@@ -41441,7 +41441,7 @@
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:silendrabodhi', 'eft:surendrabodhi'}</t>
+          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41546,7 +41546,7 @@
       </c>
       <c r="F1175" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1175" t="inlineStr">
@@ -41616,7 +41616,7 @@
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
@@ -41686,7 +41686,7 @@
       </c>
       <c r="F1179" t="inlineStr">
         <is>
-          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
+          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G1179" t="inlineStr">
@@ -42141,7 +42141,7 @@
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
@@ -42281,7 +42281,7 @@
       </c>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -42351,7 +42351,7 @@
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -42526,7 +42526,7 @@
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1203" t="inlineStr">
@@ -42596,7 +42596,7 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>{'eft:ye-shes-snying-po', 'eft:t-jnanagarbha', 'eft:yesh-nyingpo'}</t>
+          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>{'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
@@ -42666,7 +42666,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1207" t="inlineStr">
@@ -42701,7 +42701,7 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -42771,7 +42771,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
@@ -42806,7 +42806,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
@@ -42876,7 +42876,7 @@
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>{'eft:dzi-na-mi-tra-k-', 'eft:jinamitra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
@@ -42911,7 +42911,7 @@
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1214" t="inlineStr">
@@ -43331,7 +43331,7 @@
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:yesh-d-', 'eft:yesh-d-ye-shes-sde-'}</t>
+          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
         </is>
       </c>
       <c r="G1226" t="inlineStr">

--- a/new_attributions.xlsx
+++ b/new_attributions.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7771,7 +7771,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>{'eft:vidyakarasimha', 'eft:t-vidyakarasimha'}</t>
+          <t>{'eft:t-vidyakarasimha', 'eft:vidyakarasimha'}</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'eft:ch-nyi-tsultrim', 'eft:dharmatasila'}</t>
+          <t>{'eft:dharmatasila', 'eft:ch-nyi-tsultrim'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12881,7 +12881,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13021,7 +13021,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>{'eft:dpal-gyi-lhun-po', 'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo'}</t>
+          <t>{'eft:ban-de-dpal-gyi-lhun-po', 'eft:palgyi-lh-npo', 'eft:dpal-gyi-lhun-po'}</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -13616,7 +13616,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>{'eft:jnanagarbha', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:jnanagarbha'}</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -13896,7 +13896,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14106,7 +14106,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14246,7 +14246,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14386,7 +14386,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -14456,7 +14456,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -15086,7 +15086,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>{'eft:munivarma', 'eft:munivarman'}</t>
+          <t>{'eft:munivarman', 'eft:munivarma'}</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -15506,7 +15506,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -15646,7 +15646,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>{'eft:srilendrabodhi', 'eft:surendrabodhi', 'eft:silendrabodhi'}</t>
+          <t>{'eft:silendrabodhi', 'eft:srilendrabodhi', 'eft:surendrabodhi'}</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -15856,7 +15856,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'eft:yesh-nyingpo', 'eft:ye-shes-snying-po', 'eft:t-jnanagarbha'}</t>
+          <t>{'eft:t-jnanagarbha', 'eft:yesh-nyingpo', 'eft:ye-shes-snying-po'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -16241,7 +16241,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -16276,7 +16276,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -16626,7 +16626,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'eft:prajnavarma', 'eft:prajnavarman'}</t>
+          <t>{'eft:prajnavarman', 'eft:prajnavarma'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -16731,7 +16731,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>{'eft:ska-ba-dpal-brtsegs', 'eft:paltsek', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:dpal-brtsegs', 'eft:ban-de-dpal-brtsegs'}</t>
+          <t>{'eft:paltsek', 'eft:dpal-brtsegs', 'eft:ska-ba-dpal-brtsegs', 'eft:kawa-paltsek-under-the-name-paltsek-raksita-', 'eft:ban-de-dpal-brtsegs'}</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -17221,7 +17221,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:zhang-yesh-d-', 'eft:ye-shes-sde', 'eft:band-yesh-de', 'eft:band-yesh-d-'}</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -17326,7 +17326,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>{'eft:jinamitra-k-', 'eft:dzi-na-mi-tra-k-', 'eft:jinamitra'}</t>
+          <t>{'eft:jinamitra-k-', 'eft:jinamitra', 'eft:dzi-na-mi-tra-k-'}</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>{'eft:band-yesh-de', 'eft:band-yesh-d-', 'eft:zhang-yesh-d-', 'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-', 'eft:ye-shes-sde'}</t>
+          <t>{'eft:yesh-d-ye-shes-sde-', 'eft:yesh-d-